--- a/docs/工作进度.xlsx
+++ b/docs/工作进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,10 @@
   </si>
   <si>
     <t>按平均月余额工资20000换算、每月22天，每小时136元。共计176小时。共计23936元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1后</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -421,6 +425,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,7 +733,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -866,8 +873,8 @@
       <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
+      <c r="D9" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
